--- a/modbus_server/mappingTable完整包含temp_cell.xlsx
+++ b/modbus_server/mappingTable完整包含temp_cell.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\modbus_server\modbus_server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\modbus_server\modbus_server\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE88177A-C2EE-4B73-B0A4-F5C2BFB68CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E9EED0-08AD-4088-B5DB-2D5B957E0418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{808AFE6B-F94C-4DBB-AA98-AC55AAFD0F78}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4126" uniqueCount="696">
   <si>
     <t>Registers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2314,6 +2314,34 @@
   </si>
   <si>
     <t>8,16,3</t>
+  </si>
+  <si>
+    <t>imp_kwh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_kwh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2916,10 +2944,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F6ECB0-6BB4-4398-A6E3-E2CB15F7903C}">
-  <dimension ref="A1:J683"/>
+  <dimension ref="A1:J690"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" topLeftCell="A633" workbookViewId="0">
+      <selection activeCell="I662" sqref="I662"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -24409,16 +24437,16 @@
         <v>3</v>
       </c>
       <c r="B672" s="1">
-        <v>4001</v>
+        <v>3017</v>
       </c>
       <c r="C672" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D672" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E672" s="1" t="s">
-        <v>53</v>
+        <v>689</v>
       </c>
       <c r="F672" s="1" t="s">
         <v>8</v>
@@ -24432,8 +24460,8 @@
       <c r="I672" s="4">
         <v>0</v>
       </c>
-      <c r="J672" s="1" t="s">
-        <v>56</v>
+      <c r="J672" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:10" x14ac:dyDescent="0.3">
@@ -24441,16 +24469,16 @@
         <v>3</v>
       </c>
       <c r="B673" s="1">
-        <v>4003</v>
+        <v>3019</v>
       </c>
       <c r="C673" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D673" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E673" s="1" t="s">
-        <v>55</v>
+        <v>690</v>
       </c>
       <c r="F673" s="1" t="s">
         <v>8</v>
@@ -24464,8 +24492,8 @@
       <c r="I673" s="4">
         <v>0</v>
       </c>
-      <c r="J673" s="1" t="s">
-        <v>56</v>
+      <c r="J673" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:10" x14ac:dyDescent="0.3">
@@ -24473,19 +24501,19 @@
         <v>3</v>
       </c>
       <c r="B674" s="1">
-        <v>4005</v>
+        <v>3021</v>
       </c>
       <c r="C674" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D674" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E674" s="1" t="s">
-        <v>32</v>
+        <v>691</v>
       </c>
       <c r="F674" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G674" s="2" t="s">
         <v>30</v>
@@ -24496,8 +24524,8 @@
       <c r="I674" s="4">
         <v>0</v>
       </c>
-      <c r="J674" s="1" t="s">
-        <v>56</v>
+      <c r="J674" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:10" x14ac:dyDescent="0.3">
@@ -24505,16 +24533,16 @@
         <v>3</v>
       </c>
       <c r="B675" s="1">
-        <v>4007</v>
+        <v>3023</v>
       </c>
       <c r="C675" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D675" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E675" s="1" t="s">
-        <v>53</v>
+        <v>692</v>
       </c>
       <c r="F675" s="1" t="s">
         <v>8</v>
@@ -24528,8 +24556,8 @@
       <c r="I675" s="4">
         <v>0</v>
       </c>
-      <c r="J675" s="1" t="s">
-        <v>54</v>
+      <c r="J675" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:10" x14ac:dyDescent="0.3">
@@ -24537,16 +24565,16 @@
         <v>3</v>
       </c>
       <c r="B676" s="1">
-        <v>4009</v>
+        <v>3025</v>
       </c>
       <c r="C676" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D676" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E676" s="1" t="s">
-        <v>55</v>
+        <v>693</v>
       </c>
       <c r="F676" s="1" t="s">
         <v>8</v>
@@ -24560,8 +24588,8 @@
       <c r="I676" s="4">
         <v>0</v>
       </c>
-      <c r="J676" s="1" t="s">
-        <v>54</v>
+      <c r="J676" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:10" x14ac:dyDescent="0.3">
@@ -24569,19 +24597,19 @@
         <v>3</v>
       </c>
       <c r="B677" s="1">
-        <v>4011</v>
+        <v>3027</v>
       </c>
       <c r="C677" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D677" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E677" s="1" t="s">
-        <v>32</v>
+        <v>694</v>
       </c>
       <c r="F677" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G677" s="2" t="s">
         <v>30</v>
@@ -24592,8 +24620,8 @@
       <c r="I677" s="4">
         <v>0</v>
       </c>
-      <c r="J677" s="1" t="s">
-        <v>54</v>
+      <c r="J677" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:10" x14ac:dyDescent="0.3">
@@ -24601,19 +24629,19 @@
         <v>3</v>
       </c>
       <c r="B678" s="1">
-        <v>5001</v>
+        <v>3029</v>
       </c>
       <c r="C678" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D678" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E678" s="1" t="s">
-        <v>58</v>
+        <v>695</v>
       </c>
       <c r="F678" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G678" s="2" t="s">
         <v>30</v>
@@ -24624,8 +24652,8 @@
       <c r="I678" s="4">
         <v>0</v>
       </c>
-      <c r="J678" s="1" t="s">
-        <v>59</v>
+      <c r="J678" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:10" x14ac:dyDescent="0.3">
@@ -24633,19 +24661,19 @@
         <v>3</v>
       </c>
       <c r="B679" s="1">
-        <v>5002</v>
+        <v>4001</v>
       </c>
       <c r="C679" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D679" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E679" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F679" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G679" s="2" t="s">
         <v>30</v>
@@ -24657,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="J679" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="680" spans="1:10" x14ac:dyDescent="0.3">
@@ -24665,19 +24693,19 @@
         <v>3</v>
       </c>
       <c r="B680" s="1">
-        <v>5003</v>
+        <v>4003</v>
       </c>
       <c r="C680" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D680" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E680" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="F680" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G680" s="2" t="s">
         <v>30</v>
@@ -24689,7 +24717,7 @@
         <v>0</v>
       </c>
       <c r="J680" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="681" spans="1:10" x14ac:dyDescent="0.3">
@@ -24697,19 +24725,19 @@
         <v>3</v>
       </c>
       <c r="B681" s="1">
-        <v>5005</v>
+        <v>4005</v>
       </c>
       <c r="C681" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D681" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E681" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="F681" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G681" s="2" t="s">
         <v>30</v>
@@ -24721,7 +24749,7 @@
         <v>0</v>
       </c>
       <c r="J681" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="682" spans="1:10" x14ac:dyDescent="0.3">
@@ -24729,19 +24757,19 @@
         <v>3</v>
       </c>
       <c r="B682" s="1">
-        <v>5006</v>
+        <v>4007</v>
       </c>
       <c r="C682" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D682" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E682" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F682" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G682" s="2" t="s">
         <v>30</v>
@@ -24753,7 +24781,7 @@
         <v>0</v>
       </c>
       <c r="J682" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="683" spans="1:10" x14ac:dyDescent="0.3">
@@ -24761,19 +24789,19 @@
         <v>3</v>
       </c>
       <c r="B683" s="1">
-        <v>5007</v>
+        <v>4009</v>
       </c>
       <c r="C683" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D683" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E683" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="F683" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G683" s="2" t="s">
         <v>30</v>
@@ -24785,6 +24813,230 @@
         <v>0</v>
       </c>
       <c r="J683" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="684" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A684" s="1">
+        <v>3</v>
+      </c>
+      <c r="B684" s="1">
+        <v>4011</v>
+      </c>
+      <c r="C684" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D684" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E684" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F684" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G684" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H684" s="1">
+        <v>0</v>
+      </c>
+      <c r="I684" s="4">
+        <v>0</v>
+      </c>
+      <c r="J684" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="685" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A685" s="1">
+        <v>3</v>
+      </c>
+      <c r="B685" s="1">
+        <v>5001</v>
+      </c>
+      <c r="C685" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D685" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E685" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F685" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G685" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H685" s="1">
+        <v>0</v>
+      </c>
+      <c r="I685" s="4">
+        <v>0</v>
+      </c>
+      <c r="J685" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="686" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A686" s="1">
+        <v>3</v>
+      </c>
+      <c r="B686" s="1">
+        <v>5002</v>
+      </c>
+      <c r="C686" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D686" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E686" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F686" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G686" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H686" s="1">
+        <v>0</v>
+      </c>
+      <c r="I686" s="4">
+        <v>0</v>
+      </c>
+      <c r="J686" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="687" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A687" s="1">
+        <v>3</v>
+      </c>
+      <c r="B687" s="1">
+        <v>5003</v>
+      </c>
+      <c r="C687" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D687" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E687" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F687" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G687" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H687" s="1">
+        <v>0</v>
+      </c>
+      <c r="I687" s="4">
+        <v>0</v>
+      </c>
+      <c r="J687" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="688" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A688" s="1">
+        <v>3</v>
+      </c>
+      <c r="B688" s="1">
+        <v>5005</v>
+      </c>
+      <c r="C688" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D688" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E688" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F688" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G688" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H688" s="1">
+        <v>0</v>
+      </c>
+      <c r="I688" s="4">
+        <v>0</v>
+      </c>
+      <c r="J688" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="689" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A689" s="1">
+        <v>3</v>
+      </c>
+      <c r="B689" s="1">
+        <v>5006</v>
+      </c>
+      <c r="C689" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D689" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E689" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F689" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G689" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H689" s="1">
+        <v>0</v>
+      </c>
+      <c r="I689" s="4">
+        <v>0</v>
+      </c>
+      <c r="J689" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="690" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A690" s="1">
+        <v>3</v>
+      </c>
+      <c r="B690" s="1">
+        <v>5007</v>
+      </c>
+      <c r="C690" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D690" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E690" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F690" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G690" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H690" s="1">
+        <v>0</v>
+      </c>
+      <c r="I690" s="4">
+        <v>0</v>
+      </c>
+      <c r="J690" s="1" t="s">
         <v>62</v>
       </c>
     </row>
